--- a/sample issues2.xlsx
+++ b/sample issues2.xlsx
@@ -580,7 +580,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,16 +702,18 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44576</v>
+        <v>44531</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <v>50</v>
+      </c>
       <c r="E6" s="4">
         <f>data[[#This Row],[Date Started]]+60</f>
-        <v>44636</v>
+        <v>44591</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
